--- a/ff-fes-xlsx/resources/ScorecardKSP1.xlsx
+++ b/ff-fes-xlsx/resources/ScorecardKSP1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stack\FESJS\ff-fes-xlsx\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gyllion-PC\Desktop\ICT files\Jaar 4\Afstuderen\Finan\ff-fes-xlsx\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="8592" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="23040" windowHeight="8595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
   <definedNames>
     <definedName name="ABC">Sheet2!$G$6:$N$16</definedName>
     <definedName name="LeeftijdGeslachtGebondenKosten">Sheet2!$B$82:$T$99</definedName>
-    <definedName name="Opvangtoeslaginkomenstabel">Sheet2!$B$4:$C$77</definedName>
+    <definedName name="MaxCoverageChildCare">Sheet3!$B$3:$D$6</definedName>
+    <definedName name="Opvangtoeslaginkomenstabel">Sheet2!$B$4:$D$77</definedName>
     <definedName name="Version">Sheet1!$B$2:$E$7</definedName>
     <definedName name="ZoekenAlfanumeriek">Sheet1!$B$30:$C$39</definedName>
     <definedName name="ZoekenNumeriek">Sheet1!$B$18:$C$27</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -227,6 +228,24 @@
   </si>
   <si>
     <t>dasdasd</t>
+  </si>
+  <si>
+    <t>SearchOption</t>
+  </si>
+  <si>
+    <t>Daycare</t>
+  </si>
+  <si>
+    <t>OutOfSchoolCare</t>
+  </si>
+  <si>
+    <t>ChildCentrum</t>
+  </si>
+  <si>
+    <t>GuestParent</t>
+  </si>
+  <si>
+    <t>MaxCoverageChildCare</t>
   </si>
 </sst>
 </file>
@@ -275,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -363,11 +382,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
@@ -464,9 +577,42 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -482,9 +628,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -522,7 +668,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -628,7 +774,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -804,26 +950,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="18" customWidth="1"/>
     <col min="3" max="3" width="20" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.44140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9.109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
@@ -837,7 +983,7 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="32" t="s">
         <v>2</v>
       </c>
@@ -857,7 +1003,7 @@
       <c r="M3"/>
       <c r="N3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>4</v>
       </c>
@@ -881,7 +1027,7 @@
       <c r="M4"/>
       <c r="N4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>5</v>
       </c>
@@ -900,7 +1046,7 @@
       <c r="M5"/>
       <c r="N5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
         <v>6</v>
       </c>
@@ -919,7 +1065,7 @@
       <c r="M6"/>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -947,7 +1093,7 @@
       <c r="M7"/>
       <c r="N7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
@@ -969,7 +1115,7 @@
       <c r="M8"/>
       <c r="N8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -982,7 +1128,7 @@
       <c r="M9"/>
       <c r="N9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1000,7 +1146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1018,7 +1164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="34"/>
       <c r="H12" s="6">
         <f t="shared" si="0"/>
@@ -1028,7 +1174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="34"/>
       <c r="C13" s="23"/>
       <c r="D13" s="3"/>
@@ -1040,7 +1186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" s="34"/>
       <c r="C14" s="23"/>
       <c r="D14" s="3"/>
@@ -1052,7 +1198,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="34"/>
       <c r="C15" s="23"/>
       <c r="D15" s="3"/>
@@ -1064,7 +1210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="34"/>
       <c r="C16" s="23"/>
       <c r="D16" s="3"/>
@@ -1076,7 +1222,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="23"/>
       <c r="D17" s="3"/>
       <c r="H17" s="6">
@@ -1087,7 +1233,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="31" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="32" t="s">
         <v>2</v>
       </c>
@@ -1122,7 +1268,7 @@
       </c>
       <c r="N19"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="32" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1285,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="32" t="s">
         <v>5</v>
       </c>
@@ -1156,7 +1302,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="32" t="s">
         <v>6</v>
       </c>
@@ -1166,7 +1312,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="32">
         <v>1</v>
       </c>
@@ -1176,7 +1322,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="35">
         <v>2</v>
       </c>
@@ -1186,7 +1332,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="35">
         <v>3</v>
       </c>
@@ -1196,7 +1342,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="32">
         <v>4</v>
       </c>
@@ -1206,7 +1352,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="33">
         <v>5</v>
       </c>
@@ -1216,12 +1362,12 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="31" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1376,7 @@
       </c>
       <c r="D30"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="32" t="s">
         <v>2</v>
       </c>
@@ -1238,7 +1384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="32" t="s">
         <v>4</v>
       </c>
@@ -1246,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="32" t="s">
         <v>5</v>
       </c>
@@ -1254,7 +1400,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="32" t="s">
         <v>6</v>
       </c>
@@ -1262,7 +1408,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="36" t="s">
         <v>39</v>
       </c>
@@ -1270,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="35" t="s">
         <v>40</v>
       </c>
@@ -1278,7 +1424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="35" t="s">
         <v>41</v>
       </c>
@@ -1286,7 +1432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="35" t="s">
         <v>42</v>
       </c>
@@ -1294,7 +1440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="37" t="s">
         <v>43</v>
       </c>
@@ -1316,522 +1462,703 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="50"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D4" s="49"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="20">
         <v>1</v>
+      </c>
+      <c r="D6" s="25">
+        <v>2</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
       <c r="B7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="21" t="s">
         <v>44</v>
       </c>
+      <c r="D7" s="26"/>
       <c r="H7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="21" t="s">
         <v>44</v>
       </c>
+      <c r="D8" s="26"/>
       <c r="I8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="39">
         <v>0</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="48">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="41">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="39">
         <v>18486</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="48">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D10" s="41">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="39">
         <v>19717</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="48">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D11" s="41">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="39">
         <v>20946</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="48">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D12" s="41">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="39">
         <v>22178</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="48">
         <v>0.94</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="41">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="39">
         <v>23409</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="48">
         <v>0.93799999999999994</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="41">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="39">
         <v>24639</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="48">
         <v>0.92800000000000005</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="41">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="39">
         <v>25870</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="48">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="41">
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="39">
         <v>27097</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="48">
         <v>0.91200000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="41">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="39">
         <v>28422</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="48">
         <v>0.90400000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="41">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="39">
         <v>29744</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="48">
         <v>0.89300000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="41">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="39">
         <v>31068</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="48">
         <v>0.88700000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="39">
         <v>32391</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="48">
         <v>0.877</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="39">
         <v>33717</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="48">
         <v>0.86799999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="39">
         <v>35040</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="48">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="39">
         <v>36395</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="48">
         <v>0.85099999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="39">
         <v>37753</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25" s="48">
         <v>0.84299999999999997</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="39">
         <v>39110</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="48">
         <v>0.83399999999999996</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="39">
         <v>40466</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="48">
         <v>0.82299999999999995</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="39">
         <v>41825</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="48">
         <v>0.81799999999999995</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="39">
         <v>43183</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="48">
         <v>0.80800000000000005</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="39">
         <v>44539</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="48">
         <v>0.80100000000000005</v>
       </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="39">
         <v>45896</v>
       </c>
-      <c r="C31" s="41">
+      <c r="C31" s="48">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="39">
         <v>47379</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="48">
         <v>0.77200000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="39">
         <v>50287</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="48">
         <v>0.76300000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="41">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="39">
         <v>53194</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="48">
         <v>0.749</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="41">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="39">
         <v>56104</v>
       </c>
-      <c r="C35" s="41">
+      <c r="C35" s="48">
         <v>0.72299999999999998</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="41">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="39">
         <v>59013</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="48">
         <v>0.69599999999999995</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="41">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="39">
         <v>61920</v>
       </c>
-      <c r="C37" s="41">
+      <c r="C37" s="48">
         <v>0.66900000000000004</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="41">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="39">
         <v>64830</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38" s="48">
         <v>0.64100000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="41">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="39">
         <v>67737</v>
       </c>
-      <c r="C39" s="41">
+      <c r="C39" s="48">
         <v>0.61299999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="41">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="39">
         <v>70646</v>
       </c>
-      <c r="C40" s="41">
+      <c r="C40" s="48">
         <v>0.58699999999999997</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="41">
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="39">
         <v>73557</v>
       </c>
-      <c r="C41" s="41">
+      <c r="C41" s="48">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="41">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="39">
         <v>76463</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42" s="48">
         <v>0.53300000000000003</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="41">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="39">
         <v>79374</v>
       </c>
-      <c r="C43" s="41">
+      <c r="C43" s="48">
         <v>0.504</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="41">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="39">
         <v>82282</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="48">
         <v>0.47699999999999998</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="41">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="39">
         <v>85188</v>
       </c>
-      <c r="C45" s="41">
+      <c r="C45" s="48">
         <v>0.45100000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="41">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="39">
         <v>88097</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46" s="48">
         <v>0.42299999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="41">
+        <v>0.86299999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="39">
         <v>91063</v>
       </c>
-      <c r="C47" s="41">
+      <c r="C47" s="48">
         <v>0.39800000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D47" s="41">
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="39">
         <v>94043</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48" s="48">
         <v>0.374</v>
       </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="41">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="39">
         <v>97021</v>
       </c>
-      <c r="C49" s="41">
+      <c r="C49" s="48">
         <v>0.34799999999999998</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="41">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="39">
         <v>99999</v>
       </c>
-      <c r="C50" s="41">
+      <c r="C50" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D50" s="41">
+        <v>0.84199999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="39">
         <v>102977</v>
       </c>
-      <c r="C51" s="41">
+      <c r="C51" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D51" s="41">
+        <v>0.83399999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="39">
         <v>105956</v>
       </c>
-      <c r="C52" s="41">
+      <c r="C52" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D52" s="41">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="39">
         <v>108936</v>
       </c>
-      <c r="C53" s="41">
+      <c r="C53" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D53" s="41">
+        <v>0.82299999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="39">
         <v>111914</v>
       </c>
-      <c r="C54" s="41">
+      <c r="C54" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D54" s="41">
+        <v>0.81699999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="39">
         <v>114891</v>
       </c>
-      <c r="C55" s="41">
+      <c r="C55" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D55" s="41">
+        <v>0.81299999999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="39">
         <v>117870</v>
       </c>
-      <c r="C56" s="41">
+      <c r="C56" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D56" s="41">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="39">
         <v>120849</v>
       </c>
-      <c r="C57" s="41">
+      <c r="C57" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D57" s="41">
+        <v>0.79900000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="39">
         <v>123827</v>
       </c>
-      <c r="C58" s="41">
+      <c r="C58" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D58" s="41">
+        <v>0.78800000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="39">
         <v>126806</v>
       </c>
-      <c r="C59" s="41">
+      <c r="C59" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D59" s="41">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="39">
         <v>129783</v>
       </c>
-      <c r="C60" s="41">
+      <c r="C60" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D60" s="41">
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="39">
         <v>132762</v>
       </c>
-      <c r="C61" s="41">
+      <c r="C61" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D61" s="41">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="39">
         <v>135743</v>
       </c>
-      <c r="C62" s="41">
+      <c r="C62" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D62" s="41">
+        <v>0.75900000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="39">
         <v>138720</v>
       </c>
-      <c r="C63" s="41">
+      <c r="C63" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D63" s="41">
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="39">
         <v>141699</v>
       </c>
-      <c r="C64" s="41">
+      <c r="C64" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D64" s="41">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" s="39">
         <v>144676</v>
       </c>
-      <c r="C65" s="41">
+      <c r="C65" s="48">
         <v>0.33300000000000002</v>
+      </c>
+      <c r="D65" s="41">
+        <v>0.73499999999999999</v>
       </c>
       <c r="H65" t="s">
         <v>0</v>
@@ -1840,12 +2167,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" s="39">
         <v>147656</v>
       </c>
-      <c r="C66" s="41">
+      <c r="C66" s="48">
         <v>0.33300000000000002</v>
+      </c>
+      <c r="D66" s="41">
+        <v>0.72799999999999998</v>
       </c>
       <c r="H66" t="s">
         <v>63</v>
@@ -1866,12 +2196,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" s="39">
         <v>150635</v>
       </c>
-      <c r="C67" s="41">
+      <c r="C67" s="48">
         <v>0.33300000000000002</v>
+      </c>
+      <c r="D67" s="41">
+        <v>0.72</v>
       </c>
       <c r="H67" t="s">
         <v>64</v>
@@ -1892,12 +2225,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" s="39">
         <v>153613</v>
       </c>
-      <c r="C68" s="41">
+      <c r="C68" s="48">
         <v>0.33300000000000002</v>
+      </c>
+      <c r="D68" s="41">
+        <v>0.70899999999999996</v>
       </c>
       <c r="H68" t="s">
         <v>65</v>
@@ -1918,79 +2254,106 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" s="39">
         <v>156591</v>
       </c>
-      <c r="C69" s="41">
+      <c r="C69" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D69" s="41">
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" s="39">
         <v>159568</v>
       </c>
-      <c r="C70" s="41">
+      <c r="C70" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D70" s="41">
+        <v>0.69499999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" s="39">
         <v>162548</v>
       </c>
-      <c r="C71" s="41">
+      <c r="C71" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D71" s="41">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" s="39">
         <v>165526</v>
       </c>
-      <c r="C72" s="41">
+      <c r="C72" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D72" s="41">
+        <v>0.67900000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" s="39">
         <v>168505</v>
       </c>
-      <c r="C73" s="41">
+      <c r="C73" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D73" s="41">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" s="39">
         <v>171484</v>
       </c>
-      <c r="C74" s="41">
+      <c r="C74" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D74" s="41">
+        <v>0.66400000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" s="39">
         <v>174462</v>
       </c>
-      <c r="C75" s="41">
+      <c r="C75" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D75" s="41">
+        <v>0.65600000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" s="39">
         <v>177441</v>
       </c>
-      <c r="C76" s="41">
+      <c r="C76" s="48">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D76" s="41">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="40">
         <v>180419</v>
       </c>
-      <c r="C77" s="42">
+      <c r="C77" s="50">
         <v>0.33300000000000002</v>
       </c>
-    </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D77" s="42">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B82" s="44" t="s">
         <v>0</v>
       </c>
@@ -2014,7 +2377,7 @@
       <c r="R82" s="43"/>
       <c r="S82" s="43"/>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B83" s="44" t="s">
         <v>2</v>
       </c>
@@ -2038,7 +2401,7 @@
       <c r="R83" s="43"/>
       <c r="S83" s="43"/>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B84" s="44" t="s">
         <v>4</v>
       </c>
@@ -2097,7 +2460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B85" s="44" t="s">
         <v>5</v>
       </c>
@@ -2156,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B86" s="44" t="s">
         <v>6</v>
       </c>
@@ -2215,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B87" s="46" t="s">
         <v>48</v>
       </c>
@@ -2274,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B88" s="47" t="s">
         <v>50</v>
       </c>
@@ -2333,7 +2696,7 @@
         <v>2153.5</v>
       </c>
     </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B89" s="47" t="s">
         <v>51</v>
       </c>
@@ -2392,7 +2755,7 @@
         <v>2365.2000000000003</v>
       </c>
     </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B90" s="47" t="s">
         <v>52</v>
       </c>
@@ -2451,7 +2814,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B91" s="47" t="s">
         <v>53</v>
       </c>
@@ -2510,7 +2873,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B92" s="47" t="s">
         <v>54</v>
       </c>
@@ -2569,7 +2932,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B93" s="47" t="s">
         <v>55</v>
       </c>
@@ -2628,7 +2991,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B94" s="47" t="s">
         <v>56</v>
       </c>
@@ -2687,7 +3050,7 @@
         <v>358.8</v>
       </c>
     </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B95" s="47" t="s">
         <v>57</v>
       </c>
@@ -2746,7 +3109,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B96" s="47" t="s">
         <v>58</v>
       </c>
@@ -2805,7 +3168,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B97" s="47" t="s">
         <v>59</v>
       </c>
@@ -2864,7 +3227,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B98" s="47" t="s">
         <v>60</v>
       </c>
@@ -2923,63 +3286,63 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B99" s="47" t="s">
         <v>61</v>
       </c>
       <c r="C99">
-        <v>790.04</v>
+        <v>793.52</v>
       </c>
       <c r="D99">
-        <v>790.04</v>
+        <v>793.52</v>
       </c>
       <c r="E99">
-        <v>790.04</v>
+        <v>793.52</v>
       </c>
       <c r="F99">
-        <v>790.04</v>
+        <v>793.52</v>
       </c>
       <c r="G99">
-        <v>790.04</v>
+        <v>793.52</v>
       </c>
       <c r="H99">
-        <v>790.04</v>
+        <v>793.52</v>
       </c>
       <c r="I99">
-        <v>959.36</v>
+        <v>963.56</v>
       </c>
       <c r="J99">
-        <v>959.36</v>
+        <v>963.56</v>
       </c>
       <c r="K99">
-        <v>959.36</v>
+        <v>963.56</v>
       </c>
       <c r="L99">
-        <v>959.36</v>
+        <v>963.56</v>
       </c>
       <c r="M99">
-        <v>959.36</v>
+        <v>963.56</v>
       </c>
       <c r="N99">
-        <v>959.36</v>
+        <v>963.56</v>
       </c>
       <c r="O99">
-        <v>1128.6400000000001</v>
+        <v>1133.5999999999999</v>
       </c>
       <c r="P99">
-        <v>1128.6400000000001</v>
+        <v>1133.5999999999999</v>
       </c>
       <c r="Q99">
-        <v>1128.6400000000001</v>
+        <v>1133.5999999999999</v>
       </c>
       <c r="R99">
-        <v>1128.6400000000001</v>
+        <v>1133.5999999999999</v>
       </c>
       <c r="S99">
-        <v>1128.6400000000001</v>
+        <v>1133.5999999999999</v>
       </c>
       <c r="T99">
-        <v>1128.6400000000001</v>
+        <v>1133.5999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3049,12 +3412,61 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="62"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="57"/>
+      <c r="C4" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="51">
+        <v>7.18</v>
+      </c>
+      <c r="D5" s="52">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="53">
+        <v>5.75</v>
+      </c>
+      <c r="D6" s="54">
+        <v>5.75</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>